--- a/output/1Y_P39_1VAL-D.xlsx
+++ b/output/1Y_P39_1VAL-D.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
   <si>
     <t>NAV</t>
   </si>
@@ -34,16 +34,22 @@
     <t>Offer Price</t>
   </si>
   <si>
-    <t>Required Value</t>
+    <t>Shares Owned</t>
   </si>
   <si>
     <t>Shares Bought</t>
   </si>
   <si>
-    <t>Shares Owned</t>
+    <t>Required Value</t>
   </si>
   <si>
     <t>Portfolio Value</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Wealth</t>
   </si>
   <si>
     <t>Total Cost</t>
@@ -64,10 +70,7 @@
     <t>CFI</t>
   </si>
   <si>
-    <t>Net Cash</t>
-  </si>
-  <si>
-    <t>Net Wealth</t>
+    <t>TWR</t>
   </si>
   <si>
     <t>Period</t>
@@ -648,24 +651,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -713,7 +716,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -729,41 +732,35 @@
       <c r="D2" s="1">
         <v>16.886</v>
       </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
       <c r="F2" s="1">
         <v>592.2066</v>
       </c>
-      <c r="G2" s="1">
-        <v>592.2066</v>
-      </c>
       <c r="H2" s="1">
-        <v>9948.1819</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.886</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1819</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -779,41 +776,41 @@
       <c r="D3" s="1">
         <v>17.59</v>
       </c>
+      <c r="E3" s="1">
+        <v>592.2066</v>
+      </c>
       <c r="F3" s="1">
         <v>568.5048</v>
       </c>
-      <c r="G3" s="1">
-        <v>1160.7114</v>
-      </c>
       <c r="H3" s="1">
-        <v>20311.0565</v>
+        <v>10362.9042</v>
       </c>
       <c r="I3" s="1">
-        <v>20000</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.2308</v>
+        <v>10362.9042</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.886</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-10000</v>
       </c>
-      <c r="O3" s="1">
-        <v>-0</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20311.0565</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0182</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -829,41 +826,41 @@
       <c r="D4" s="1">
         <v>15.0121</v>
       </c>
+      <c r="E4" s="1">
+        <v>1160.7114</v>
+      </c>
       <c r="F4" s="1">
         <v>666.1292999999999</v>
       </c>
-      <c r="G4" s="1">
-        <v>1826.8407</v>
-      </c>
       <c r="H4" s="1">
-        <v>27282.4046</v>
+        <v>17334.2961</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>-0</v>
       </c>
       <c r="J4" s="1">
-        <v>16.4218</v>
+        <v>17334.2961</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>17.2308</v>
+      </c>
+      <c r="M4" s="1">
         <v>3.57</v>
       </c>
-      <c r="L4" s="1">
-        <v>3729.3657</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-6270.6343</v>
+        <v>1902.7597</v>
       </c>
       <c r="O4" s="1">
-        <v>3729.3657</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>31011.7703</v>
+        <v>-8097.2403</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0231</v>
+        <v>-0.1487</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -879,41 +876,41 @@
       <c r="D5" s="1">
         <v>15.3645</v>
       </c>
+      <c r="E5" s="1">
+        <v>1826.8407</v>
+      </c>
       <c r="F5" s="1">
-        <v>677.8206</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2504.6613</v>
+        <v>664.6111</v>
       </c>
       <c r="H5" s="1">
-        <v>38283.2466</v>
+        <v>27922.895</v>
       </c>
       <c r="I5" s="1">
-        <v>40414.374</v>
+        <v>1902.7597</v>
       </c>
       <c r="J5" s="1">
-        <v>16.1357</v>
+        <v>29825.6547</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>30211.4177</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>16.5375</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-10414.374</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>3314.9917</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41598.2384</v>
+        <v>-10211.4177</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0143</v>
+        <v>0.0911</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -929,41 +926,41 @@
       <c r="D6" s="1">
         <v>16.4953</v>
       </c>
+      <c r="E6" s="1">
+        <v>2491.4518</v>
+      </c>
       <c r="F6" s="1">
-        <v>631.354</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3136.0153</v>
+        <v>619.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>51461.0702</v>
+        <v>40883.9774</v>
       </c>
       <c r="I6" s="1">
-        <v>50828.7479</v>
+        <v>1691.3419</v>
       </c>
       <c r="J6" s="1">
-        <v>16.2081</v>
+        <v>42575.3193</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40422.8355</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>16.2246</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-10414.374</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>2900.6178</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>54361.688</v>
+        <v>-10211.4177</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0536</v>
+        <v>0.06900000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -979,41 +976,41 @@
       <c r="D7" s="1">
         <v>16.9701</v>
       </c>
+      <c r="E7" s="1">
+        <v>3110.502</v>
+      </c>
       <c r="F7" s="1">
-        <v>613.6896</v>
-      </c>
-      <c r="G7" s="1">
-        <v>3749.7049</v>
+        <v>601.73</v>
       </c>
       <c r="H7" s="1">
-        <v>63302.8931</v>
+        <v>52511.8056</v>
       </c>
       <c r="I7" s="1">
-        <v>61243.1219</v>
+        <v>1479.9242</v>
       </c>
       <c r="J7" s="1">
-        <v>16.3328</v>
+        <v>53991.7298</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50634.2532</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>16.2785</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
-        <v>-10414.374</v>
+        <v>0</v>
       </c>
       <c r="O7" s="1">
-        <v>2486.2438</v>
+        <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>65789.1369</v>
+        <v>-10211.4177</v>
       </c>
       <c r="Q7" s="3">
-        <v>0.0222</v>
+        <v>0.0269</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1029,41 +1026,41 @@
       <c r="D8" s="1">
         <v>17.9905</v>
       </c>
+      <c r="E8" s="1">
+        <v>3712.232</v>
+      </c>
       <c r="F8" s="1">
-        <v>578.8819</v>
-      </c>
-      <c r="G8" s="1">
-        <v>4328.5868</v>
+        <v>567.6006</v>
       </c>
       <c r="H8" s="1">
-        <v>77469.5828</v>
+        <v>66438.5578</v>
       </c>
       <c r="I8" s="1">
-        <v>71657.49589999999</v>
+        <v>1268.5065</v>
       </c>
       <c r="J8" s="1">
-        <v>16.5545</v>
+        <v>67707.06419999999</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>60845.671</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>16.3906</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
-        <v>-10414.374</v>
+        <v>0</v>
       </c>
       <c r="O8" s="1">
-        <v>2071.8698</v>
+        <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>79541.45269999999</v>
+        <v>-10211.4177</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0495</v>
+        <v>0.0581</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1079,41 +1076,41 @@
       <c r="D9" s="1">
         <v>18.2369</v>
       </c>
+      <c r="E9" s="1">
+        <v>4279.8325</v>
+      </c>
       <c r="F9" s="1">
-        <v>571.0605</v>
-      </c>
-      <c r="G9" s="1">
-        <v>4899.6473</v>
+        <v>559.9317</v>
       </c>
       <c r="H9" s="1">
-        <v>88890.8711</v>
+        <v>77646.0053</v>
       </c>
       <c r="I9" s="1">
-        <v>82071.8698</v>
+        <v>1057.0887</v>
       </c>
       <c r="J9" s="1">
-        <v>16.7506</v>
+        <v>78703.094</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>71057.08869999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.6028</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
-        <v>-10414.374</v>
+        <v>0</v>
       </c>
       <c r="O9" s="1">
-        <v>1657.4959</v>
+        <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>90548.36689999999</v>
+        <v>-10211.4177</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0112</v>
+        <v>0.0128</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1129,41 +1126,41 @@
       <c r="D10" s="1">
         <v>19.1395</v>
       </c>
+      <c r="E10" s="1">
+        <v>4839.7642</v>
+      </c>
       <c r="F10" s="1">
-        <v>544.1299</v>
-      </c>
-      <c r="G10" s="1">
-        <v>5443.7772</v>
+        <v>533.5258</v>
       </c>
       <c r="H10" s="1">
-        <v>103650.6063</v>
+        <v>92150.0778</v>
       </c>
       <c r="I10" s="1">
-        <v>92486.2438</v>
+        <v>845.671</v>
       </c>
       <c r="J10" s="1">
-        <v>16.9894</v>
+        <v>92995.7487</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>81268.5065</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.7918</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
-        <v>-10414.374</v>
+        <v>0</v>
       </c>
       <c r="O10" s="1">
-        <v>1243.1219</v>
+        <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>104893.7282</v>
+        <v>-10211.4177</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0432</v>
+        <v>0.0484</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1179,41 +1176,41 @@
       <c r="D11" s="1">
         <v>20.979</v>
       </c>
+      <c r="E11" s="1">
+        <v>5373.29</v>
+      </c>
       <c r="F11" s="1">
-        <v>496.419</v>
-      </c>
-      <c r="G11" s="1">
-        <v>5940.1962</v>
+        <v>486.7447</v>
       </c>
       <c r="H11" s="1">
-        <v>123973.6761</v>
+        <v>112142.1744</v>
       </c>
       <c r="I11" s="1">
-        <v>102900.6178</v>
+        <v>634.2532</v>
       </c>
       <c r="J11" s="1">
-        <v>17.3228</v>
+        <v>112776.4277</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>91479.92419999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>17.0249</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
-        <v>-10414.374</v>
+        <v>0</v>
       </c>
       <c r="O11" s="1">
-        <v>828.7479</v>
+        <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>124802.424</v>
+        <v>-10211.4177</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0862</v>
+        <v>0.095</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1229,41 +1226,41 @@
       <c r="D12" s="1">
         <v>22.3911</v>
       </c>
+      <c r="E12" s="1">
+        <v>5860.0347</v>
+      </c>
       <c r="F12" s="1">
-        <v>465.1122</v>
-      </c>
-      <c r="G12" s="1">
-        <v>6405.3084</v>
+        <v>456.0481</v>
       </c>
       <c r="H12" s="1">
-        <v>142678.8846</v>
+        <v>130532.8598</v>
       </c>
       <c r="I12" s="1">
-        <v>113314.9917</v>
+        <v>422.8355</v>
       </c>
       <c r="J12" s="1">
-        <v>17.6908</v>
+        <v>130955.6953</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>101691.3419</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>17.3534</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
-        <v>-10414.374</v>
+        <v>0</v>
       </c>
       <c r="O12" s="1">
-        <v>414.374</v>
+        <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>143093.2586</v>
+        <v>-10211.4177</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0615</v>
+        <v>0.06660000000000001</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1279,41 +1276,41 @@
       <c r="D13" s="1">
         <v>23.2533</v>
       </c>
+      <c r="E13" s="1">
+        <v>6316.0828</v>
+      </c>
       <c r="F13" s="1">
-        <v>447.8665</v>
-      </c>
-      <c r="G13" s="1">
-        <v>6853.1749</v>
+        <v>439.1384</v>
       </c>
       <c r="H13" s="1">
-        <v>158532.4384</v>
+        <v>146108.0486</v>
       </c>
       <c r="I13" s="1">
-        <v>123729.3657</v>
+        <v>211.4177</v>
       </c>
       <c r="J13" s="1">
-        <v>18.0543</v>
+        <v>146319.4663</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>111902.7597</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>17.7171</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
-        <v>-10414.374</v>
+        <v>0</v>
       </c>
       <c r="O13" s="1">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>158532.4384</v>
+        <v>-10211.4177</v>
       </c>
       <c r="Q13" s="3">
-        <v>0.0355</v>
+        <v>0.0381</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1329,41 +1326,41 @@
       <c r="D14" s="1">
         <v>22.965</v>
       </c>
+      <c r="E14" s="1">
+        <v>6755.2212</v>
+      </c>
       <c r="F14" s="1">
-        <v>-6853.1749</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
+        <v>-6316.0828</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>154329.1088</v>
       </c>
       <c r="I14" s="1">
-        <v>123729.3657</v>
+        <v>-0</v>
       </c>
       <c r="J14" s="1">
-        <v>18.0543</v>
+        <v>154329.1088</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>111902.7597</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>16.5654</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
-        <v>156566.9478</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
-        <v>156566.9478</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>156566.9478</v>
+        <v>144296.5961</v>
       </c>
       <c r="Q14" s="3">
-        <v>-0.07099999999999999</v>
+        <v>-0.0127</v>
       </c>
     </row>
   </sheetData>
@@ -1383,24 +1380,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -1448,7 +1445,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -1465,43 +1462,37 @@
         <v>16.886</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>592.2066</v>
       </c>
       <c r="G2" s="1">
-        <v>592.2066</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1819</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.886</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1819</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -1518,43 +1509,43 @@
         <v>17.59</v>
       </c>
       <c r="E3" s="1">
-        <v>20000</v>
+        <v>592.2066</v>
       </c>
       <c r="F3" s="1">
         <v>550.729</v>
       </c>
       <c r="G3" s="1">
-        <v>1142.9355</v>
+        <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>20000</v>
+        <v>10362.9042</v>
       </c>
       <c r="I3" s="1">
-        <v>19687.3223</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.2252</v>
+        <v>10362.9042</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9687.3223</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.358</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9687.3223</v>
       </c>
-      <c r="O3" s="1">
-        <v>312.6777</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20312.6777</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0183</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1571,43 +1562,43 @@
         <v>15.0121</v>
       </c>
       <c r="E4" s="1">
-        <v>30000</v>
+        <v>1142.9355</v>
       </c>
       <c r="F4" s="1">
         <v>686.9577</v>
       </c>
       <c r="G4" s="1">
-        <v>1829.8932</v>
+        <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>27327.9913</v>
+        <v>17068.8276</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>312.6777</v>
       </c>
       <c r="J4" s="1">
-        <v>16.3944</v>
+        <v>17381.5053</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>17.4988</v>
+      </c>
+      <c r="M4" s="1">
         <v>3.57</v>
       </c>
-      <c r="L4" s="1">
-        <v>3672.2518</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-6640.4259</v>
+        <v>1902.7597</v>
       </c>
       <c r="O4" s="1">
-        <v>3672.2518</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>31000.2431</v>
+        <v>-8409.918</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0227</v>
+        <v>-0.1464</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1624,43 +1615,43 @@
         <v>15.3645</v>
       </c>
       <c r="E5" s="1">
+        <v>1829.8932</v>
+      </c>
+      <c r="F5" s="1">
+        <v>774.6923</v>
+      </c>
+      <c r="G5" s="1">
         <v>40000</v>
       </c>
-      <c r="F5" s="1">
-        <v>787.0857</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2616.979</v>
-      </c>
       <c r="H5" s="1">
-        <v>40000</v>
+        <v>27969.5518</v>
       </c>
       <c r="I5" s="1">
-        <v>42093.1789</v>
+        <v>1902.7597</v>
       </c>
       <c r="J5" s="1">
-        <v>16.0846</v>
+        <v>29872.3115</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>31902.7597</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.4342</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-12093.1789</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>1579.0729</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41579.0729</v>
+        <v>-11902.7597</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0141</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1677,43 +1668,43 @@
         <v>16.4953</v>
       </c>
       <c r="E6" s="1">
+        <v>2604.5855</v>
+      </c>
+      <c r="F6" s="1">
+        <v>442.3928</v>
+      </c>
+      <c r="G6" s="1">
         <v>50000</v>
       </c>
-      <c r="F6" s="1">
-        <v>429.9994</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3046.9783</v>
-      </c>
       <c r="H6" s="1">
-        <v>50000</v>
+        <v>42740.4668</v>
       </c>
       <c r="I6" s="1">
-        <v>49186.1472</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.1426</v>
+        <v>42740.4668</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39200.1617</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.0504</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-7092.9683</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>4486.1046</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>54486.1046</v>
+        <v>-7297.402</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0564</v>
+        <v>0.07190000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1730,43 +1721,43 @@
         <v>16.9701</v>
       </c>
       <c r="E7" s="1">
-        <v>60000</v>
+        <v>3046.9783</v>
       </c>
       <c r="F7" s="1">
         <v>507.0819</v>
       </c>
       <c r="G7" s="1">
-        <v>3554.0602</v>
+        <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>60000</v>
+        <v>51439.3926</v>
       </c>
       <c r="I7" s="1">
-        <v>57791.3779</v>
+        <v>2702.598</v>
       </c>
       <c r="J7" s="1">
-        <v>16.2607</v>
+        <v>54141.9905</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>47805.3924</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.6894</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8605.2307</v>
       </c>
-      <c r="O7" s="1">
-        <v>5880.8739</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65880.87390000001</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0216</v>
+        <v>0.0266</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1783,43 +1774,43 @@
         <v>17.9905</v>
       </c>
       <c r="E8" s="1">
-        <v>70000</v>
+        <v>3554.0602</v>
       </c>
       <c r="F8" s="1">
         <v>357.1661</v>
       </c>
       <c r="G8" s="1">
-        <v>3911.2263</v>
+        <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>70000</v>
+        <v>63607.7265</v>
       </c>
       <c r="I8" s="1">
-        <v>64216.9749</v>
+        <v>4097.3673</v>
       </c>
       <c r="J8" s="1">
-        <v>16.4186</v>
+        <v>67705.0938</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>54230.9895</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.2589</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-6425.5971</v>
       </c>
-      <c r="O8" s="1">
-        <v>9455.276900000001</v>
-      </c>
-      <c r="P8" s="1">
-        <v>79455.2769</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0471</v>
+        <v>0.0556</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1836,43 +1827,43 @@
         <v>18.2369</v>
       </c>
       <c r="E9" s="1">
-        <v>80000</v>
+        <v>3911.2263</v>
       </c>
       <c r="F9" s="1">
         <v>498.3579</v>
       </c>
       <c r="G9" s="1">
-        <v>4409.5842</v>
+        <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>80000</v>
+        <v>70958.6416</v>
       </c>
       <c r="I9" s="1">
-        <v>73305.478</v>
+        <v>7671.7702</v>
       </c>
       <c r="J9" s="1">
-        <v>16.6241</v>
+        <v>78630.4118</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>63319.4925</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.1892</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9088.5031</v>
       </c>
-      <c r="O9" s="1">
-        <v>10366.7738</v>
-      </c>
-      <c r="P9" s="1">
-        <v>90366.7738</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0102</v>
+        <v>0.0119</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1889,43 +1880,43 @@
         <v>19.1395</v>
       </c>
       <c r="E10" s="1">
-        <v>90000</v>
+        <v>4409.5842</v>
       </c>
       <c r="F10" s="1">
         <v>317.2569</v>
       </c>
       <c r="G10" s="1">
-        <v>4726.8411</v>
+        <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>90000</v>
+        <v>83959.36569999999</v>
       </c>
       <c r="I10" s="1">
-        <v>79377.6159</v>
+        <v>8583.267099999999</v>
       </c>
       <c r="J10" s="1">
-        <v>16.793</v>
+        <v>92542.63280000001</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>69391.6305</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.7365</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-6072.1379</v>
       </c>
-      <c r="O10" s="1">
-        <v>14294.6359</v>
-      </c>
-      <c r="P10" s="1">
-        <v>104294.6359</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0391</v>
+        <v>0.0441</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1942,43 +1933,43 @@
         <v>20.979</v>
       </c>
       <c r="E11" s="1">
-        <v>100000</v>
+        <v>4726.8411</v>
       </c>
       <c r="F11" s="1">
         <v>64.65689999999999</v>
       </c>
       <c r="G11" s="1">
-        <v>4791.498</v>
+        <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>100000</v>
+        <v>98650.5919</v>
       </c>
       <c r="I11" s="1">
-        <v>80734.05220000001</v>
+        <v>12511.1292</v>
       </c>
       <c r="J11" s="1">
-        <v>16.8494</v>
+        <v>111161.7211</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>70748.0668</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>14.9673</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-1356.4363</v>
       </c>
-      <c r="O11" s="1">
-        <v>22938.1996</v>
-      </c>
-      <c r="P11" s="1">
-        <v>122938.1996</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0756</v>
+        <v>0.08409999999999999</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1995,43 +1986,43 @@
         <v>22.3911</v>
       </c>
       <c r="E12" s="1">
-        <v>110000</v>
+        <v>4791.498</v>
       </c>
       <c r="F12" s="1">
         <v>146.7515</v>
       </c>
       <c r="G12" s="1">
-        <v>4938.2494</v>
+        <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>110000</v>
+        <v>106731.0963</v>
       </c>
       <c r="I12" s="1">
-        <v>84019.9791</v>
+        <v>21154.6929</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0141</v>
+        <v>127885.7893</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>74033.9936</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.4511</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-3285.9268</v>
       </c>
-      <c r="O12" s="1">
-        <v>29652.2727</v>
-      </c>
-      <c r="P12" s="1">
-        <v>139652.2727</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0505</v>
+        <v>0.0555</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2048,43 +2039,43 @@
         <v>23.2533</v>
       </c>
       <c r="E13" s="1">
-        <v>120000</v>
+        <v>4938.2494</v>
       </c>
       <c r="F13" s="1">
         <v>249.2125</v>
       </c>
       <c r="G13" s="1">
-        <v>5187.4619</v>
+        <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>120000</v>
+        <v>114235.0427</v>
       </c>
       <c r="I13" s="1">
-        <v>89814.9914</v>
+        <v>27868.7661</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3139</v>
+        <v>142103.8088</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>79829.0059</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.1654</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-5795.0123</v>
       </c>
-      <c r="O13" s="1">
-        <v>33857.2604</v>
-      </c>
-      <c r="P13" s="1">
-        <v>153857.2604</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0281</v>
+        <v>0.0306</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2101,7 +2092,7 @@
         <v>22.965</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>5187.4619</v>
       </c>
       <c r="F14" s="1">
         <v>-5187.4619</v>
@@ -2110,34 +2101,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>118512.2359</v>
       </c>
       <c r="I14" s="1">
-        <v>89814.9914</v>
+        <v>32073.7538</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3139</v>
+        <v>150585.9897</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>79829.0059</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.3888</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>118512.2359</v>
       </c>
-      <c r="O14" s="1">
-        <v>152369.4964</v>
-      </c>
-      <c r="P14" s="1">
-        <v>152369.4964</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0701</v>
+        <v>-0.01</v>
       </c>
     </row>
   </sheetData>
@@ -2157,24 +2148,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2222,7 +2213,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -2239,43 +2230,37 @@
         <v>16.886</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>592.2066</v>
       </c>
       <c r="G2" s="1">
-        <v>592.2066</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1819</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.886</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1819</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -2292,43 +2277,43 @@
         <v>17.59</v>
       </c>
       <c r="E3" s="1">
-        <v>20050</v>
+        <v>592.2066</v>
       </c>
       <c r="F3" s="1">
         <v>553.5863000000001</v>
       </c>
       <c r="G3" s="1">
-        <v>1145.7929</v>
+        <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>20050</v>
+        <v>10362.9042</v>
       </c>
       <c r="I3" s="1">
-        <v>19737.5829</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.2261</v>
+        <v>10362.9042</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9737.582899999999</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.4429</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9737.582899999999</v>
       </c>
-      <c r="O3" s="1">
-        <v>262.4171</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20312.4171</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0183</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2345,43 +2330,43 @@
         <v>15.0121</v>
       </c>
       <c r="E4" s="1">
-        <v>30150.25</v>
+        <v>1145.7929</v>
       </c>
       <c r="F4" s="1">
         <v>683.6097</v>
       </c>
       <c r="G4" s="1">
-        <v>1829.4025</v>
+        <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>27320.6636</v>
+        <v>17111.4996</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>262.4171</v>
       </c>
       <c r="J4" s="1">
-        <v>16.3988</v>
+        <v>17373.9168</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>17.4552</v>
+      </c>
+      <c r="M4" s="1">
         <v>3.57</v>
       </c>
-      <c r="L4" s="1">
-        <v>3681.4324</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-6580.9847</v>
+        <v>1902.7597</v>
       </c>
       <c r="O4" s="1">
-        <v>3681.4324</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>31002.096</v>
+        <v>-8359.6574</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0228</v>
+        <v>-0.1468</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2398,43 +2383,43 @@
         <v>15.3645</v>
       </c>
       <c r="E5" s="1">
+        <v>1829.4025</v>
+      </c>
+      <c r="F5" s="1">
+        <v>774.6923</v>
+      </c>
+      <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
-      <c r="F5" s="1">
-        <v>807.2693</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2636.6718</v>
-      </c>
       <c r="H5" s="1">
-        <v>40301.0012</v>
+        <v>27962.0521</v>
       </c>
       <c r="I5" s="1">
-        <v>42403.2885</v>
+        <v>1902.7597</v>
       </c>
       <c r="J5" s="1">
-        <v>16.0821</v>
+        <v>29864.8118</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>31902.7597</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.4389</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-12403.2885</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>1278.1439</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41579.1452</v>
+        <v>-11902.7597</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.0141</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2451,43 +2436,43 @@
         <v>16.4953</v>
       </c>
       <c r="E6" s="1">
+        <v>2604.0948</v>
+      </c>
+      <c r="F6" s="1">
+        <v>473.506</v>
+      </c>
+      <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
-      <c r="F6" s="1">
-        <v>440.929</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3077.6008</v>
-      </c>
       <c r="H6" s="1">
-        <v>50502.5063</v>
+        <v>42732.4151</v>
       </c>
       <c r="I6" s="1">
-        <v>49676.5449</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.1413</v>
+        <v>42732.4151</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>39713.383</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.2504</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-7273.2564</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>4004.8875</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>54507.3938</v>
+        <v>-7810.6233</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0568</v>
+        <v>0.07190000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2504,43 +2489,43 @@
         <v>16.9701</v>
       </c>
       <c r="E7" s="1">
-        <v>60755.0188</v>
+        <v>3077.6008</v>
       </c>
       <c r="F7" s="1">
         <v>521.1824</v>
       </c>
       <c r="G7" s="1">
-        <v>3598.7833</v>
+        <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>60755.0188</v>
+        <v>51956.3649</v>
       </c>
       <c r="I7" s="1">
-        <v>58521.0629</v>
+        <v>2189.3767</v>
       </c>
       <c r="J7" s="1">
-        <v>16.2613</v>
+        <v>54145.7416</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>48557.9009</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.7778</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-8844.518</v>
       </c>
-      <c r="O7" s="1">
-        <v>5160.3696</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65915.38830000001</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0218</v>
+        <v>0.0268</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2557,43 +2542,43 @@
         <v>17.9905</v>
       </c>
       <c r="E8" s="1">
-        <v>71058.7939</v>
+        <v>3598.7833</v>
       </c>
       <c r="F8" s="1">
         <v>371.6028</v>
       </c>
       <c r="G8" s="1">
-        <v>3970.3861</v>
+        <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>71058.7939</v>
+        <v>64408.1437</v>
       </c>
       <c r="I8" s="1">
-        <v>65206.3836</v>
+        <v>3344.8588</v>
       </c>
       <c r="J8" s="1">
-        <v>16.4232</v>
+        <v>67753.0024</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>55243.2217</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.3505</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-6685.3208</v>
       </c>
-      <c r="O8" s="1">
-        <v>8475.0488</v>
-      </c>
-      <c r="P8" s="1">
-        <v>79533.84269999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0477</v>
+        <v>0.0562</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2610,43 +2595,43 @@
         <v>18.2369</v>
       </c>
       <c r="E9" s="1">
-        <v>81414.0879</v>
+        <v>3970.3861</v>
       </c>
       <c r="F9" s="1">
         <v>517.1424</v>
       </c>
       <c r="G9" s="1">
-        <v>4487.5285</v>
+        <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>81414.0879</v>
+        <v>72031.93550000001</v>
       </c>
       <c r="I9" s="1">
-        <v>74637.45759999999</v>
+        <v>6659.538</v>
       </c>
       <c r="J9" s="1">
-        <v>16.6322</v>
+        <v>78691.47349999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>64674.2957</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.2892</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9431.074000000001</v>
       </c>
-      <c r="O9" s="1">
-        <v>9043.9748</v>
-      </c>
-      <c r="P9" s="1">
-        <v>90458.0626</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0103</v>
+        <v>0.0121</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2663,43 +2648,43 @@
         <v>19.1395</v>
       </c>
       <c r="E10" s="1">
-        <v>91821.1583</v>
+        <v>4487.5285</v>
       </c>
       <c r="F10" s="1">
         <v>334.9607</v>
       </c>
       <c r="G10" s="1">
-        <v>4822.4892</v>
+        <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>91821.1583</v>
+        <v>85443.4397</v>
       </c>
       <c r="I10" s="1">
-        <v>81048.4379</v>
+        <v>7228.464</v>
       </c>
       <c r="J10" s="1">
-        <v>16.8063</v>
+        <v>92671.9037</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>71085.27589999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.8406</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-6410.9802</v>
       </c>
-      <c r="O10" s="1">
-        <v>12632.9946</v>
-      </c>
-      <c r="P10" s="1">
-        <v>104454.1529</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0398</v>
+        <v>0.0449</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2716,43 +2701,43 @@
         <v>20.979</v>
       </c>
       <c r="E11" s="1">
-        <v>102280.2641</v>
+        <v>4822.4892</v>
       </c>
       <c r="F11" s="1">
         <v>78.2676</v>
       </c>
       <c r="G11" s="1">
-        <v>4900.7568</v>
+        <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>102280.2641</v>
+        <v>100646.7957</v>
       </c>
       <c r="I11" s="1">
-        <v>82690.4139</v>
+        <v>10817.4838</v>
       </c>
       <c r="J11" s="1">
-        <v>16.873</v>
+        <v>111464.2795</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>72727.25199999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.0809</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-1641.9761</v>
       </c>
-      <c r="O11" s="1">
-        <v>20991.0185</v>
-      </c>
-      <c r="P11" s="1">
-        <v>123271.2826</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.077</v>
+        <v>0.0856</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2769,43 +2754,43 @@
         <v>22.3911</v>
       </c>
       <c r="E12" s="1">
-        <v>112791.6654</v>
+        <v>4900.7568</v>
       </c>
       <c r="F12" s="1">
         <v>162.8194</v>
       </c>
       <c r="G12" s="1">
-        <v>5063.5762</v>
+        <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>112791.6654</v>
+        <v>109164.8472</v>
       </c>
       <c r="I12" s="1">
-        <v>86336.1192</v>
+        <v>19175.5077</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0504</v>
+        <v>128340.3549</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>76372.9572</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.5839</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-3645.7053</v>
       </c>
-      <c r="O12" s="1">
-        <v>27345.3133</v>
-      </c>
-      <c r="P12" s="1">
-        <v>140136.9787</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0515</v>
+        <v>0.0566</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2822,43 +2807,43 @@
         <v>23.2533</v>
       </c>
       <c r="E13" s="1">
-        <v>123355.6237</v>
+        <v>5063.5762</v>
       </c>
       <c r="F13" s="1">
         <v>268.9455</v>
       </c>
       <c r="G13" s="1">
-        <v>5332.5217</v>
+        <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>123355.6237</v>
+        <v>117134.1883</v>
       </c>
       <c r="I13" s="1">
-        <v>92589.98940000001</v>
+        <v>25529.8025</v>
       </c>
       <c r="J13" s="1">
-        <v>17.3633</v>
+        <v>142663.9908</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>82626.82739999999</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.3179</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-6253.8702</v>
       </c>
-      <c r="O13" s="1">
-        <v>31091.443</v>
-      </c>
-      <c r="P13" s="1">
-        <v>154447.0668</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0287</v>
+        <v>0.0313</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2875,7 +2860,7 @@
         <v>22.965</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>5332.5217</v>
       </c>
       <c r="F14" s="1">
         <v>-5332.5217</v>
@@ -2884,34 +2869,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>121826.2565</v>
       </c>
       <c r="I14" s="1">
-        <v>92589.98940000001</v>
+        <v>29275.9322</v>
       </c>
       <c r="J14" s="1">
-        <v>17.3633</v>
+        <v>151102.1888</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>82626.82739999999</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.4949</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>121826.2565</v>
       </c>
-      <c r="O14" s="1">
-        <v>152917.6996</v>
-      </c>
-      <c r="P14" s="1">
-        <v>152917.6996</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0701</v>
+        <v>-0.0102</v>
       </c>
     </row>
   </sheetData>
@@ -2931,24 +2916,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="13.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2996,7 +2981,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3013,43 +2998,37 @@
         <v>16.886</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>592.2066</v>
       </c>
       <c r="G2" s="1">
-        <v>592.2066</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1819</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.886</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1819</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3066,43 +3045,43 @@
         <v>17.59</v>
       </c>
       <c r="E3" s="1">
-        <v>20100</v>
+        <v>592.2066</v>
       </c>
       <c r="F3" s="1">
         <v>556.4435999999999</v>
       </c>
       <c r="G3" s="1">
-        <v>1148.6502</v>
+        <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>20100</v>
+        <v>10362.9042</v>
       </c>
       <c r="I3" s="1">
-        <v>19787.8435</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.227</v>
+        <v>10362.9042</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9787.843500000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.5278</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9787.843500000001</v>
       </c>
-      <c r="O3" s="1">
-        <v>212.1565</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20312.1565</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0182</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3119,43 +3098,43 @@
         <v>15.0121</v>
       </c>
       <c r="E4" s="1">
-        <v>30301</v>
+        <v>1148.6502</v>
       </c>
       <c r="F4" s="1">
         <v>680.2617</v>
       </c>
       <c r="G4" s="1">
-        <v>1828.9119</v>
+        <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>27313.3359</v>
+        <v>17154.1717</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>212.1565</v>
       </c>
       <c r="J4" s="1">
-        <v>16.4032</v>
+        <v>17366.3282</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>17.4117</v>
+      </c>
+      <c r="M4" s="1">
         <v>3.57</v>
       </c>
-      <c r="L4" s="1">
-        <v>3690.6131</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-6521.5435</v>
+        <v>1902.7597</v>
       </c>
       <c r="O4" s="1">
-        <v>3690.6131</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>31003.9489</v>
+        <v>-8309.3968</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0228</v>
+        <v>-0.1472</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3172,43 +3151,43 @@
         <v>15.3645</v>
       </c>
       <c r="E5" s="1">
+        <v>1828.9119</v>
+      </c>
+      <c r="F5" s="1">
+        <v>774.6923</v>
+      </c>
+      <c r="G5" s="1">
         <v>40604.01</v>
       </c>
-      <c r="F5" s="1">
-        <v>827.5841</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2656.496</v>
-      </c>
       <c r="H5" s="1">
-        <v>40604.01</v>
+        <v>27954.5524</v>
       </c>
       <c r="I5" s="1">
-        <v>42715.4161</v>
+        <v>1902.7597</v>
       </c>
       <c r="J5" s="1">
-        <v>16.0796</v>
+        <v>29857.312</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>31902.7597</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.4436</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-12715.4161</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>975.197</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41579.207</v>
+        <v>-11902.7597</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.014</v>
+        <v>0.091</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3225,43 +3204,43 @@
         <v>16.4953</v>
       </c>
       <c r="E6" s="1">
+        <v>2603.6042</v>
+      </c>
+      <c r="F6" s="1">
+        <v>504.9262</v>
+      </c>
+      <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
-      <c r="F6" s="1">
-        <v>452.0343</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3108.5303</v>
-      </c>
       <c r="H6" s="1">
-        <v>51010.0501</v>
+        <v>42724.3634</v>
       </c>
       <c r="I6" s="1">
-        <v>50171.858</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.1401</v>
+        <v>42724.3634</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40231.6681</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.4523</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-7456.4419</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>3518.7551</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>54528.8052</v>
+        <v>-8328.9084</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0572</v>
+        <v>0.07190000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3278,43 +3257,43 @@
         <v>16.9701</v>
       </c>
       <c r="E7" s="1">
-        <v>61520.1506</v>
+        <v>3108.5303</v>
       </c>
       <c r="F7" s="1">
         <v>535.575</v>
       </c>
       <c r="G7" s="1">
-        <v>3644.1053</v>
+        <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>61520.1506</v>
+        <v>52478.5198</v>
       </c>
       <c r="I7" s="1">
-        <v>59260.6194</v>
+        <v>1671.0916</v>
       </c>
       <c r="J7" s="1">
-        <v>16.262</v>
+        <v>54149.6114</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>49320.4294</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.8662</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9088.761399999999</v>
       </c>
-      <c r="O7" s="1">
-        <v>4429.9937</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65950.1443</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.022</v>
+        <v>0.027</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3331,43 +3310,43 @@
         <v>17.9905</v>
       </c>
       <c r="E8" s="1">
-        <v>72135.3521</v>
+        <v>3644.1053</v>
       </c>
       <c r="F8" s="1">
         <v>386.4331</v>
       </c>
       <c r="G8" s="1">
-        <v>4030.5384</v>
+        <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>72135.3521</v>
+        <v>65219.2819</v>
       </c>
       <c r="I8" s="1">
-        <v>66212.7438</v>
+        <v>2582.3302</v>
       </c>
       <c r="J8" s="1">
-        <v>16.4278</v>
+        <v>67801.6122</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>56272.5538</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.4421</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-6952.1244</v>
       </c>
-      <c r="O8" s="1">
-        <v>7477.8693</v>
-      </c>
-      <c r="P8" s="1">
-        <v>79613.22139999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0482</v>
+        <v>0.0569</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3384,43 +3363,43 @@
         <v>18.2369</v>
       </c>
       <c r="E9" s="1">
-        <v>82856.7056</v>
+        <v>4030.5384</v>
       </c>
       <c r="F9" s="1">
         <v>536.5069</v>
       </c>
       <c r="G9" s="1">
-        <v>4567.0453</v>
+        <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>82856.7056</v>
+        <v>73123.2371</v>
       </c>
       <c r="I9" s="1">
-        <v>75996.9659</v>
+        <v>5630.2059</v>
       </c>
       <c r="J9" s="1">
-        <v>16.6403</v>
+        <v>78753.44289999999</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>66056.77589999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.3891</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-9784.222100000001</v>
       </c>
-      <c r="O9" s="1">
-        <v>7693.6472</v>
-      </c>
-      <c r="P9" s="1">
-        <v>90550.35279999999</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0105</v>
+        <v>0.0122</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3437,43 +3416,43 @@
         <v>19.1395</v>
       </c>
       <c r="E10" s="1">
-        <v>93685.2727</v>
+        <v>4567.0453</v>
       </c>
       <c r="F10" s="1">
         <v>353.348</v>
       </c>
       <c r="G10" s="1">
-        <v>4920.3933</v>
+        <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>93685.2727</v>
+        <v>86957.4556</v>
       </c>
       <c r="I10" s="1">
-        <v>82759.8704</v>
+        <v>5845.9837</v>
       </c>
       <c r="J10" s="1">
-        <v>16.8198</v>
+        <v>92803.4393</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>72819.6805</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>15.9446</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-6762.9046</v>
       </c>
-      <c r="O10" s="1">
-        <v>10930.7427</v>
-      </c>
-      <c r="P10" s="1">
-        <v>104616.0153</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0404</v>
+        <v>0.0456</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3490,43 +3469,43 @@
         <v>20.979</v>
       </c>
       <c r="E11" s="1">
-        <v>104622.1254</v>
+        <v>4920.3933</v>
       </c>
       <c r="F11" s="1">
         <v>92.5737</v>
       </c>
       <c r="G11" s="1">
-        <v>5012.967</v>
+        <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>104622.1254</v>
+        <v>102690.0845</v>
       </c>
       <c r="I11" s="1">
-        <v>84701.97410000001</v>
+        <v>9083.0792</v>
       </c>
       <c r="J11" s="1">
-        <v>16.8966</v>
+        <v>111773.1637</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>74761.78419999999</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.1943</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-1942.1037</v>
       </c>
-      <c r="O11" s="1">
-        <v>18988.639</v>
-      </c>
-      <c r="P11" s="1">
-        <v>123610.7644</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0785</v>
+        <v>0.0873</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3543,43 +3522,43 @@
         <v>22.3911</v>
       </c>
       <c r="E12" s="1">
-        <v>115668.3467</v>
+        <v>5012.967</v>
       </c>
       <c r="F12" s="1">
         <v>179.7525</v>
       </c>
       <c r="G12" s="1">
-        <v>5192.7195</v>
+        <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>115668.3467</v>
+        <v>111664.3415</v>
       </c>
       <c r="I12" s="1">
-        <v>88726.8306</v>
+        <v>17140.9755</v>
       </c>
       <c r="J12" s="1">
-        <v>17.0868</v>
+        <v>128805.317</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>78786.6407</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.7166</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-4024.8565</v>
       </c>
-      <c r="O12" s="1">
-        <v>24963.7825</v>
-      </c>
-      <c r="P12" s="1">
-        <v>140632.1291</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0526</v>
+        <v>0.0577</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -3596,43 +3575,43 @@
         <v>23.2533</v>
       </c>
       <c r="E13" s="1">
-        <v>126825.0301</v>
+        <v>5192.7195</v>
       </c>
       <c r="F13" s="1">
         <v>289.7806</v>
       </c>
       <c r="G13" s="1">
-        <v>5482.5001</v>
+        <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>126825.0301</v>
+        <v>120121.6229</v>
       </c>
       <c r="I13" s="1">
-        <v>95465.1853</v>
+        <v>23116.119</v>
       </c>
       <c r="J13" s="1">
-        <v>17.4127</v>
+        <v>143237.7419</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>85524.9954</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.4702</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-6738.3547</v>
       </c>
-      <c r="O13" s="1">
-        <v>28225.4277</v>
-      </c>
-      <c r="P13" s="1">
-        <v>155050.4579</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.0293</v>
+        <v>0.0319</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3649,7 +3628,7 @@
         <v>22.965</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>5482.5001</v>
       </c>
       <c r="F14" s="1">
         <v>-5482.5001</v>
@@ -3658,34 +3637,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>125252.6491</v>
       </c>
       <c r="I14" s="1">
-        <v>95465.1853</v>
+        <v>26377.7643</v>
       </c>
       <c r="J14" s="1">
-        <v>17.4127</v>
+        <v>151630.4134</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>85524.9954</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.5996</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>125252.6491</v>
       </c>
-      <c r="O14" s="1">
-        <v>153478.0768</v>
-      </c>
-      <c r="P14" s="1">
-        <v>153478.0768</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0701</v>
+        <v>-0.0105</v>
       </c>
     </row>
   </sheetData>
@@ -3705,24 +3684,24 @@
     <col min="2" max="2" width="9.7109375" style="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="17.7109375" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="1" customWidth="1"/>
-    <col min="13" max="13" width="9.7109375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="13.7109375" style="1" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" customWidth="1"/>
+    <col min="13" max="13" width="6.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="15.7109375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="9.7109375" style="1" customWidth="1"/>
     <col min="16" max="16" width="13.7109375" style="1" customWidth="1"/>
     <col min="17" max="17" width="9.7109375" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -3770,7 +3749,7 @@
         <v>15</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3787,43 +3766,37 @@
         <v>16.886</v>
       </c>
       <c r="E2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>592.2066</v>
       </c>
       <c r="G2" s="1">
-        <v>592.2066</v>
+        <v>10000</v>
       </c>
       <c r="H2" s="1">
-        <v>9948.1819</v>
+        <v>0</v>
       </c>
       <c r="I2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="J2" s="1">
-        <v>16.886</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
         <v>0</v>
       </c>
-      <c r="L2" s="1">
-        <v>0</v>
-      </c>
       <c r="M2" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N2" s="1">
+        <v>0</v>
+      </c>
+      <c r="O2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P2" s="1">
         <v>-10000</v>
-      </c>
-      <c r="O2" s="1">
-        <v>0</v>
-      </c>
-      <c r="P2" s="1">
-        <v>9948.1819</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>-0.0052</v>
       </c>
     </row>
     <row r="3" spans="1:17">
@@ -3840,43 +3813,43 @@
         <v>17.59</v>
       </c>
       <c r="E3" s="1">
-        <v>20150</v>
+        <v>592.2066</v>
       </c>
       <c r="F3" s="1">
         <v>559.301</v>
       </c>
       <c r="G3" s="1">
-        <v>1151.5075</v>
+        <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>20150</v>
+        <v>10362.9042</v>
       </c>
       <c r="I3" s="1">
-        <v>19838.1041</v>
+        <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>17.2279</v>
+        <v>10362.9042</v>
       </c>
       <c r="K3" s="1">
-        <v>0</v>
+        <v>9838.1041</v>
       </c>
       <c r="L3" s="1">
-        <v>0</v>
+        <v>16.6126</v>
       </c>
       <c r="M3" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P3" s="1">
         <v>-9838.1041</v>
       </c>
-      <c r="O3" s="1">
-        <v>161.8959</v>
-      </c>
-      <c r="P3" s="1">
-        <v>20311.8959</v>
-      </c>
       <c r="Q3" s="3">
-        <v>0.0182</v>
+        <v>0.0363</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3893,43 +3866,43 @@
         <v>15.0121</v>
       </c>
       <c r="E4" s="1">
-        <v>30452.25</v>
+        <v>1151.5075</v>
       </c>
       <c r="F4" s="1">
         <v>676.9136999999999</v>
       </c>
       <c r="G4" s="1">
-        <v>1828.4212</v>
+        <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>27306.0081</v>
+        <v>17196.8438</v>
       </c>
       <c r="I4" s="1">
-        <v>30000</v>
+        <v>161.8959</v>
       </c>
       <c r="J4" s="1">
-        <v>16.4076</v>
+        <v>17358.7397</v>
       </c>
       <c r="K4" s="1">
+        <v>20000</v>
+      </c>
+      <c r="L4" s="1">
+        <v>17.3685</v>
+      </c>
+      <c r="M4" s="1">
         <v>3.57</v>
       </c>
-      <c r="L4" s="1">
-        <v>3699.7937</v>
-      </c>
-      <c r="M4" s="1">
-        <v>10000</v>
-      </c>
       <c r="N4" s="1">
-        <v>-6462.1022</v>
+        <v>1902.7597</v>
       </c>
       <c r="O4" s="1">
-        <v>3699.7937</v>
+        <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>31005.8018</v>
+        <v>-8259.136200000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>0.0229</v>
+        <v>-0.1475</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3946,43 +3919,43 @@
         <v>15.3645</v>
       </c>
       <c r="E5" s="1">
+        <v>1828.4212</v>
+      </c>
+      <c r="F5" s="1">
+        <v>774.6923</v>
+      </c>
+      <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
-      <c r="F5" s="1">
-        <v>848.0308</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2676.452</v>
-      </c>
       <c r="H5" s="1">
-        <v>40909.0337</v>
+        <v>27947.0526</v>
       </c>
       <c r="I5" s="1">
-        <v>43029.5692</v>
+        <v>1902.7597</v>
       </c>
       <c r="J5" s="1">
-        <v>16.0771</v>
+        <v>29849.8123</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>31902.7597</v>
       </c>
       <c r="L5" s="1">
-        <v>0</v>
+        <v>17.4483</v>
       </c>
       <c r="M5" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N5" s="1">
-        <v>-13029.5692</v>
+        <v>0</v>
       </c>
       <c r="O5" s="1">
-        <v>670.2245</v>
+        <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>41579.2583</v>
+        <v>-11902.7597</v>
       </c>
       <c r="Q5" s="3">
-        <v>0.014</v>
+        <v>0.0911</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3999,43 +3972,43 @@
         <v>16.4953</v>
       </c>
       <c r="E6" s="1">
+        <v>2603.1135</v>
+      </c>
+      <c r="F6" s="1">
+        <v>536.6556</v>
+      </c>
+      <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
-      <c r="F6" s="1">
-        <v>463.3171</v>
-      </c>
-      <c r="G6" s="1">
-        <v>3139.7691</v>
-      </c>
       <c r="H6" s="1">
-        <v>51522.6693</v>
+        <v>42716.3117</v>
       </c>
       <c r="I6" s="1">
-        <v>50672.1238</v>
+        <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>16.1388</v>
+        <v>42716.3117</v>
       </c>
       <c r="K6" s="1">
-        <v>0</v>
+        <v>40755.0549</v>
       </c>
       <c r="L6" s="1">
-        <v>0</v>
+        <v>15.6563</v>
       </c>
       <c r="M6" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N6" s="1">
-        <v>-7642.5546</v>
+        <v>0</v>
       </c>
       <c r="O6" s="1">
-        <v>3027.6699</v>
+        <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>54550.3392</v>
+        <v>-8852.2953</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0576</v>
+        <v>0.07190000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4052,43 +4025,43 @@
         <v>16.9701</v>
       </c>
       <c r="E7" s="1">
-        <v>62295.5093</v>
+        <v>3139.7691</v>
       </c>
       <c r="F7" s="1">
         <v>550.2641</v>
       </c>
       <c r="G7" s="1">
-        <v>3690.0332</v>
+        <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>62295.5093</v>
+        <v>53005.8962</v>
       </c>
       <c r="I7" s="1">
-        <v>60010.1601</v>
+        <v>1147.7047</v>
       </c>
       <c r="J7" s="1">
-        <v>16.2628</v>
+        <v>54153.6009</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>50093.0913</v>
       </c>
       <c r="L7" s="1">
-        <v>0</v>
+        <v>15.9544</v>
       </c>
       <c r="M7" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N7" s="1">
+        <v>0</v>
+      </c>
+      <c r="O7" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P7" s="1">
         <v>-9338.0363</v>
       </c>
-      <c r="O7" s="1">
-        <v>3689.6336</v>
-      </c>
-      <c r="P7" s="1">
-        <v>65985.14290000001</v>
-      </c>
       <c r="Q7" s="3">
-        <v>0.0222</v>
+        <v>0.0273</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4105,43 +4078,43 @@
         <v>17.9905</v>
       </c>
       <c r="E8" s="1">
-        <v>73229.94190000001</v>
+        <v>3690.0332</v>
       </c>
       <c r="F8" s="1">
         <v>401.6651</v>
       </c>
       <c r="G8" s="1">
-        <v>4091.6983</v>
+        <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>73229.94190000001</v>
+        <v>66041.262</v>
       </c>
       <c r="I8" s="1">
-        <v>67236.31540000001</v>
+        <v>1809.6684</v>
       </c>
       <c r="J8" s="1">
-        <v>16.4324</v>
+        <v>67850.9304</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>57319.2466</v>
       </c>
       <c r="L8" s="1">
-        <v>0</v>
+        <v>15.5335</v>
       </c>
       <c r="M8" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N8" s="1">
+        <v>0</v>
+      </c>
+      <c r="O8" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P8" s="1">
         <v>-7226.1553</v>
       </c>
-      <c r="O8" s="1">
-        <v>6463.4783</v>
-      </c>
-      <c r="P8" s="1">
-        <v>79693.42019999999</v>
-      </c>
       <c r="Q8" s="3">
-        <v>0.0488</v>
+        <v>0.0576</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4158,43 +4131,43 @@
         <v>18.2369</v>
       </c>
       <c r="E9" s="1">
-        <v>84328.39109999999</v>
+        <v>4091.6983</v>
       </c>
       <c r="F9" s="1">
         <v>556.466</v>
       </c>
       <c r="G9" s="1">
-        <v>4648.1643</v>
+        <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>84328.39109999999</v>
+        <v>74232.8172</v>
       </c>
       <c r="I9" s="1">
-        <v>77384.531</v>
+        <v>4583.5131</v>
       </c>
       <c r="J9" s="1">
-        <v>16.6484</v>
+        <v>78816.3303</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>67467.46219999999</v>
       </c>
       <c r="L9" s="1">
-        <v>0</v>
+        <v>16.4889</v>
       </c>
       <c r="M9" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N9" s="1">
+        <v>0</v>
+      </c>
+      <c r="O9" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P9" s="1">
         <v>-10148.2156</v>
       </c>
-      <c r="O9" s="1">
-        <v>6315.2627</v>
-      </c>
-      <c r="P9" s="1">
-        <v>90643.6538</v>
-      </c>
       <c r="Q9" s="3">
-        <v>0.0106</v>
+        <v>0.0124</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4211,43 +4184,43 @@
         <v>19.1395</v>
       </c>
       <c r="E10" s="1">
-        <v>95593.31690000001</v>
+        <v>4648.1643</v>
       </c>
       <c r="F10" s="1">
         <v>372.4404</v>
       </c>
       <c r="G10" s="1">
-        <v>5020.6047</v>
+        <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>95593.31690000001</v>
+        <v>88501.97779999999</v>
       </c>
       <c r="I10" s="1">
-        <v>84512.8535</v>
+        <v>4435.2975</v>
       </c>
       <c r="J10" s="1">
-        <v>16.8332</v>
+        <v>92937.27529999999</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>74595.7846</v>
       </c>
       <c r="L10" s="1">
-        <v>0</v>
+        <v>16.0484</v>
       </c>
       <c r="M10" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N10" s="1">
+        <v>0</v>
+      </c>
+      <c r="O10" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P10" s="1">
         <v>-7128.3225</v>
       </c>
-      <c r="O10" s="1">
-        <v>9186.940199999999</v>
-      </c>
-      <c r="P10" s="1">
-        <v>104780.2572</v>
-      </c>
       <c r="Q10" s="3">
-        <v>0.0411</v>
+        <v>0.0464</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4264,43 +4237,43 @@
         <v>20.979</v>
       </c>
       <c r="E11" s="1">
-        <v>107027.2167</v>
+        <v>5020.6047</v>
       </c>
       <c r="F11" s="1">
         <v>107.6022</v>
       </c>
       <c r="G11" s="1">
-        <v>5128.2069</v>
+        <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>107027.2167</v>
+        <v>104781.5255</v>
       </c>
       <c r="I11" s="1">
-        <v>86770.24099999999</v>
+        <v>7306.975</v>
       </c>
       <c r="J11" s="1">
-        <v>16.9202</v>
+        <v>112088.5006</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>76853.1722</v>
       </c>
       <c r="L11" s="1">
-        <v>0</v>
+        <v>15.3076</v>
       </c>
       <c r="M11" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N11" s="1">
+        <v>0</v>
+      </c>
+      <c r="O11" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P11" s="1">
         <v>-2257.3875</v>
       </c>
-      <c r="O11" s="1">
-        <v>16929.5527</v>
-      </c>
-      <c r="P11" s="1">
-        <v>123956.7694</v>
-      </c>
       <c r="Q11" s="3">
-        <v>0.0799</v>
+        <v>0.08890000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4317,43 +4290,43 @@
         <v>22.3911</v>
       </c>
       <c r="E12" s="1">
-        <v>118632.6249</v>
+        <v>5128.2069</v>
       </c>
       <c r="F12" s="1">
         <v>197.5885</v>
       </c>
       <c r="G12" s="1">
-        <v>5325.7954</v>
+        <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>118632.6249</v>
+        <v>114231.3218</v>
       </c>
       <c r="I12" s="1">
-        <v>91194.4644</v>
+        <v>15049.5875</v>
       </c>
       <c r="J12" s="1">
-        <v>17.1232</v>
+        <v>129280.9093</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>81277.3956</v>
       </c>
       <c r="L12" s="1">
-        <v>0</v>
+        <v>15.8491</v>
       </c>
       <c r="M12" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P12" s="1">
         <v>-4424.2234</v>
       </c>
-      <c r="O12" s="1">
-        <v>22505.3293</v>
-      </c>
-      <c r="P12" s="1">
-        <v>141137.9542</v>
-      </c>
       <c r="Q12" s="3">
-        <v>0.0536</v>
+        <v>0.0589</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4370,43 +4343,43 @@
         <v>23.2533</v>
       </c>
       <c r="E13" s="1">
-        <v>130412.1143</v>
+        <v>5325.7954</v>
       </c>
       <c r="F13" s="1">
         <v>311.7702</v>
       </c>
       <c r="G13" s="1">
-        <v>5637.5656</v>
+        <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>130412.1143</v>
+        <v>123200.0271</v>
       </c>
       <c r="I13" s="1">
-        <v>98444.15119999999</v>
+        <v>20625.3641</v>
       </c>
       <c r="J13" s="1">
-        <v>17.4622</v>
+        <v>143825.3911</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>88527.0824</v>
       </c>
       <c r="L13" s="1">
-        <v>0</v>
+        <v>16.6223</v>
       </c>
       <c r="M13" s="1">
-        <v>10000</v>
+        <v>0</v>
       </c>
       <c r="N13" s="1">
+        <v>0</v>
+      </c>
+      <c r="O13" s="1">
+        <v>10000</v>
+      </c>
+      <c r="P13" s="1">
         <v>-7249.6867</v>
       </c>
-      <c r="O13" s="1">
-        <v>25255.6425</v>
-      </c>
-      <c r="P13" s="1">
-        <v>155667.7568</v>
-      </c>
       <c r="Q13" s="3">
-        <v>0.03</v>
+        <v>0.0326</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4423,7 +4396,7 @@
         <v>22.965</v>
       </c>
       <c r="E14" s="1">
-        <v>0</v>
+        <v>5637.5656</v>
       </c>
       <c r="F14" s="1">
         <v>-5637.5656</v>
@@ -4432,34 +4405,34 @@
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>128795.2605</v>
       </c>
       <c r="I14" s="1">
-        <v>98444.15119999999</v>
+        <v>23375.6773</v>
       </c>
       <c r="J14" s="1">
-        <v>17.4622</v>
+        <v>152170.9378</v>
       </c>
       <c r="K14" s="1">
-        <v>0</v>
+        <v>88527.0824</v>
       </c>
       <c r="L14" s="1">
-        <v>0</v>
+        <v>15.7031</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
       </c>
       <c r="N14" s="1">
+        <v>0</v>
+      </c>
+      <c r="O14" s="1">
+        <v>0</v>
+      </c>
+      <c r="P14" s="1">
         <v>128795.2605</v>
       </c>
-      <c r="O14" s="1">
-        <v>154050.903</v>
-      </c>
-      <c r="P14" s="1">
-        <v>154050.903</v>
-      </c>
       <c r="Q14" s="3">
-        <v>-0.0701</v>
+        <v>-0.0108</v>
       </c>
     </row>
   </sheetData>
@@ -4489,24 +4462,24 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B2" s="1">
         <v>22.9031</v>
@@ -4514,131 +4487,131 @@
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1">
       <c r="A3" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>18.0543</v>
+        <v>16.5654</v>
       </c>
       <c r="D3" s="1">
-        <v>17.3139</v>
+        <v>15.3888</v>
       </c>
       <c r="E3" s="1">
-        <v>17.3633</v>
+        <v>15.4949</v>
       </c>
       <c r="F3" s="1">
-        <v>17.4127</v>
+        <v>15.5996</v>
       </c>
       <c r="G3" s="1">
-        <v>17.4622</v>
+        <v>15.7031</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" s="3">
         <v>0.3338</v>
       </c>
       <c r="C4" s="3">
-        <v>0.3476</v>
+        <v>0.3809</v>
       </c>
       <c r="D4" s="3">
-        <v>0.3136</v>
+        <v>0.3511</v>
       </c>
       <c r="E4" s="3">
-        <v>0.3186</v>
+        <v>0.3557</v>
       </c>
       <c r="F4" s="3">
-        <v>0.3237</v>
+        <v>0.3604</v>
       </c>
       <c r="G4" s="3">
-        <v>0.3288</v>
+        <v>0.3651</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
       <c r="A5" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B5" s="3">
         <v>0.2059</v>
       </c>
       <c r="C5" s="3">
-        <v>0.1278</v>
+        <v>0.2147</v>
       </c>
       <c r="D5" s="3">
-        <v>0.1197</v>
+        <v>0.2073</v>
       </c>
       <c r="E5" s="3">
-        <v>0.1207</v>
+        <v>0.2084</v>
       </c>
       <c r="F5" s="3">
-        <v>0.1218</v>
+        <v>0.2095</v>
       </c>
       <c r="G5" s="3">
-        <v>0.123</v>
+        <v>0.2106</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="4">
         <v>1.5229</v>
       </c>
       <c r="C6" s="4">
-        <v>2.561</v>
+        <v>1.6793</v>
       </c>
       <c r="D6" s="4">
-        <v>2.4505</v>
+        <v>1.5953</v>
       </c>
       <c r="E6" s="4">
-        <v>2.4704</v>
+        <v>1.6092</v>
       </c>
       <c r="F6" s="4">
-        <v>2.49</v>
+        <v>1.6231</v>
       </c>
       <c r="G6" s="4">
-        <v>2.5093</v>
+        <v>1.637</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
       <c r="A7" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.6239</v>
+        <v>0.3992</v>
       </c>
       <c r="D7" s="3">
-        <v>0.6456</v>
+        <v>0.5906</v>
       </c>
       <c r="E7" s="3">
-        <v>0.6446</v>
+        <v>0.5901</v>
       </c>
       <c r="F7" s="3">
-        <v>0.6437</v>
+        <v>0.5895</v>
       </c>
       <c r="G7" s="3">
-        <v>0.6427</v>
+        <v>0.5889</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
       <c r="A8" s="2" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>3729.3657</v>
+        <v>1902.7597</v>
       </c>
       <c r="D8" s="1">
-        <v>3672.2518</v>
+        <v>1902.7597</v>
       </c>
       <c r="E8" s="1">
-        <v>3681.4324</v>
+        <v>1902.7597</v>
       </c>
       <c r="F8" s="1">
-        <v>3690.6131</v>
+        <v>1902.7597</v>
       </c>
       <c r="G8" s="1">
-        <v>3699.7937</v>
+        <v>1902.7597</v>
       </c>
     </row>
   </sheetData>
